--- a/整合包/【危机黯月城】前置任务制作/20190709[终焉誓约][任务脚本]【多英雄副本】【危机黯月城】前置任务制作(倪祖伟)V1.0/说明文档/2【终焉誓约】危机黯月城前置任务流程v1.00.xlsx
+++ b/整合包/【危机黯月城】前置任务制作/20190709[终焉誓约][任务脚本]【多英雄副本】【危机黯月城】前置任务制作(倪祖伟)V1.0/说明文档/2【终焉誓约】危机黯月城前置任务流程v1.00.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Home\cao\整合包\【危机黯月城】前置任务制作\20190709[终焉誓约][任务脚本]【多英雄副本】【危机黯月城】前置任务制作(倪祖伟)V1.0\说明文档\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="13065"/>
+    <workbookView xWindow="1125" yWindow="0" windowWidth="28245" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="黯月城前置任务" sheetId="4" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>序号</t>
   </si>
@@ -68,9 +73,6 @@
   </si>
   <si>
     <t>完成后，自动领取下一个任务</t>
-  </si>
-  <si>
-    <t>禁卫军的秘密任务</t>
   </si>
   <si>
     <t>前往报道</t>
@@ -110,9 +112,6 @@
     <t>杀怪</t>
   </si>
   <si>
-    <t>收集样本</t>
-  </si>
-  <si>
     <t>需要收集魔族样本*10，会刷出5组怪物（怪物在上一个任务就已经先刷出来），每个怪物随机掉落3~5样本
 战斗场景：24</t>
   </si>
@@ -136,9 +135,6 @@
   <si>
     <t>完成后，自动领取下一个任务
 完成任务后出对白去提交样本</t>
-  </si>
-  <si>
-    <t>上交样本</t>
   </si>
   <si>
     <r>
@@ -161,23 +157,11 @@
     </r>
   </si>
   <si>
-    <t>后续的考验</t>
-  </si>
-  <si>
-    <t>拜访特罗德</t>
-  </si>
-  <si>
     <t>自动寻路，找到特罗德触发对白</t>
   </si>
   <si>
     <t>特罗德
 主城的永久NPC</t>
-  </si>
-  <si>
-    <t>神秘试炼场</t>
-  </si>
-  <si>
-    <t>寻找泰雷</t>
   </si>
   <si>
     <t>自动寻路，寻路到卡诺萨的马车位置播放场景动画完成任务
@@ -213,23 +197,11 @@
     </r>
   </si>
   <si>
-    <t>黯月城</t>
-  </si>
-  <si>
     <t>副本</t>
-  </si>
-  <si>
-    <t>通关黯月城</t>
   </si>
   <si>
     <t>和泰雷对话进入黯月城
 通关黯月城引导副本完成任务</t>
-  </si>
-  <si>
-    <t>体验报告</t>
-  </si>
-  <si>
-    <t>汇报特罗德</t>
   </si>
   <si>
     <t>特罗德
@@ -261,18 +233,60 @@
     <t>黯月城功能解锁
 出现阿噗引导，对白说明以后可以通过UI进入黯月城，并说明玩法开放时间</t>
   </si>
+  <si>
+    <t>禁卫军的秘密任务</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集样本</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>上交样本</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续的考验</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>拜访特罗德</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找泰雷</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘试炼场</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找泰雷</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>黯月城</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关黯月城</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>体验报告</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇报特罗德</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,121 +327,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -440,29 +340,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -471,192 +361,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -705,256 +415,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -973,13 +444,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -997,108 +468,71 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1112,7 +546,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1385,21 +819,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="20" style="4" customWidth="1"/>
@@ -1414,7 +847,7 @@
     <col min="11" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="45" customHeight="1" spans="1:10">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1446,7 +879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="67" customHeight="1" spans="1:10">
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="66.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1474,12 +907,12 @@
       </c>
       <c r="J2" s="13"/>
     </row>
-    <row r="3" s="2" customFormat="1" ht="91" customHeight="1" spans="1:10">
-      <c r="A3" s="14">
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="23">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>17</v>
+      <c r="B3" s="27" t="s">
+        <v>38</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>11</v>
@@ -1488,47 +921,47 @@
         <v>12</v>
       </c>
       <c r="E3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1" ht="366.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="24"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="367" customHeight="1" spans="1:10">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="G4" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J4" s="13"/>
     </row>
-    <row r="5" s="2" customFormat="1" ht="82" customHeight="1" spans="1:10">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
+    <row r="5" spans="1:10" s="2" customFormat="1" ht="81.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="24"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="9" t="s">
         <v>11</v>
       </c>
@@ -1536,26 +969,26 @@
         <v>12</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J5" s="13"/>
     </row>
-    <row r="6" s="2" customFormat="1" ht="69" customHeight="1" spans="1:10">
+    <row r="6" spans="1:10" s="2" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14">
         <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>11</v>
@@ -1564,26 +997,26 @@
         <v>12</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>16</v>
       </c>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" s="2" customFormat="1" ht="75" customHeight="1" spans="1:10">
-      <c r="A7" s="18">
+    <row r="7" spans="1:10" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="25">
         <v>4</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>34</v>
+      <c r="B7" s="29" t="s">
+        <v>44</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>11</v>
@@ -1592,10 +1025,10 @@
         <v>12</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
@@ -1604,9 +1037,9 @@
       </c>
       <c r="J7" s="13"/>
     </row>
-    <row r="8" s="2" customFormat="1" ht="78" customHeight="1" spans="1:10">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
+    <row r="8" spans="1:10" s="2" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="26"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="9" t="s">
         <v>11</v>
       </c>
@@ -1614,38 +1047,38 @@
         <v>12</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J8" s="13"/>
     </row>
-    <row r="9" s="2" customFormat="1" ht="43.5" customHeight="1" spans="1:10">
-      <c r="A9" s="22">
+    <row r="9" spans="1:10" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="16">
         <v>5</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>40</v>
+      <c r="B9" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -1654,12 +1087,12 @@
       </c>
       <c r="J9" s="13"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="79" customHeight="1" spans="1:10">
-      <c r="A10" s="24">
+    <row r="10" spans="1:10" s="2" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="18">
         <v>6</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>44</v>
+      <c r="B10" s="19" t="s">
+        <v>48</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>11</v>
@@ -1668,129 +1101,129 @@
         <v>12</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="J10" s="13"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="73" customHeight="1" spans="1:10">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
+    <row r="11" spans="1:10" s="2" customFormat="1" ht="72.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="10"/>
       <c r="F11" s="13" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="26"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="26"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1799,8 +1232,8 @@
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B7:B8"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>